--- a/biology/Histoire de la zoologie et de la botanique/Albert_Hazen_Wright/Albert_Hazen_Wright.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Hazen_Wright/Albert_Hazen_Wright.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Hazen Wright (né le 15 août 1879 à Hilton (New York) et mort le 4 juillet 1970 à Ithaca) est un zoologiste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Delos C. Wright et Emily Hazen. Il fait ses études à l'université Cornell (Ithaca) où il obtient son doctorat en 1908. Il y commence à enseigner comme démonstrateur dès 1905. Il rencontre Anna Maria Allen (1882-1964) à Cornell avec laquelle il se marie le 25 juin 1910. Le couple s’intéresse à l'étude des amphibiens. En 1879, ils cosignent les livres Handbook of Snakes of the United States and Canada et Handbook of Frogs and Toads of the United States and Canada.
 Il fait paraître en 1914 un article sur la mort, en captivité, du dernier pigeon migrateur.
